--- a/BTC_200_5.xlsx
+++ b/BTC_200_5.xlsx
@@ -508,29 +508,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44593.375</v>
+        <v>44594.375</v>
       </c>
       <c r="B2" t="n">
-        <v>7520</v>
+        <v>16270</v>
       </c>
       <c r="C2" t="n">
-        <v>7525</v>
+        <v>25390</v>
       </c>
       <c r="D2" t="n">
-        <v>7215</v>
+        <v>16120</v>
       </c>
       <c r="E2" t="n">
-        <v>7325</v>
+        <v>18150</v>
       </c>
       <c r="F2" t="n">
-        <v>5344189.6522034</v>
+        <v>22404659.30785831</v>
       </c>
       <c r="G2" t="n">
-        <v>39219467810.87688</v>
+        <v>470822596397.9555</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>155</v>
+        <v>4635</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="b">
@@ -548,32 +548,32 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44594.375</v>
+        <v>44595.375</v>
       </c>
       <c r="B3" t="n">
-        <v>7325</v>
+        <v>18150</v>
       </c>
       <c r="C3" t="n">
-        <v>7775</v>
+        <v>20810</v>
       </c>
       <c r="D3" t="n">
-        <v>7265</v>
+        <v>18000</v>
       </c>
       <c r="E3" t="n">
-        <v>7625</v>
+        <v>20020</v>
       </c>
       <c r="F3" t="n">
-        <v>5378899.09394461</v>
+        <v>1838445.54439633</v>
       </c>
       <c r="G3" t="n">
-        <v>40931604867.30801</v>
+        <v>36353384906.11395</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>255</v>
+        <v>1405</v>
       </c>
       <c r="J3" t="n">
-        <v>7480</v>
+        <v>22785</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
